--- a/summary_list.xlsx
+++ b/summary_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/w0w00t5/Documents/Github/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF5B077-A332-DD48-9D21-71BD1BE89059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74F37E2-2AD0-654D-9B38-29F85C90AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9D62251C-E105-284A-B8E3-E0308F80C012}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Leecode</t>
   </si>
@@ -170,8 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CA39E4-0BF4-B949-B258-8226DA227FC6}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,7 +500,7 @@
     <col min="3" max="3" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -517,8 +518,11 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -528,66 +532,72 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>

--- a/summary_list.xlsx
+++ b/summary_list.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/w0w00t5/Documents/Github/Leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiweiwang/Documents/GitHub/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74F37E2-2AD0-654D-9B38-29F85C90AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9D62251C-E105-284A-B8E3-E0308F80C012}"/>
+    <workbookView xWindow="1500" yWindow="500" windowWidth="27720" windowHeight="17500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Set and Permutation" sheetId="1" r:id="rId1"/>
     <sheet name="HashTable" sheetId="2" r:id="rId2"/>
     <sheet name="TwoPointers" sheetId="3" r:id="rId3"/>
+    <sheet name="Binary Search" sheetId="4" r:id="rId4"/>
+    <sheet name="Sorted Array" sheetId="5" r:id="rId5"/>
+    <sheet name="Graph" sheetId="7" r:id="rId6"/>
+    <sheet name="snap" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
   <si>
     <t>Leecode</t>
   </si>
@@ -135,19 +144,471 @@
   </si>
   <si>
     <t>93. Restore IP Addresses</t>
+  </si>
+  <si>
+    <t>704_Binary_Search</t>
+  </si>
+  <si>
+    <t>模版 Given an sorted integer array - nums, and an integer - target. Find the any/first/last position of target in nums, return -1 if target doesn’t exist. Key points:                                                                                   1. start + 1 &lt; end                                                                                                                                                              2. start + (end - start)//2                                                                                                                                                     3. A[mid] ==, &lt;, &gt;                                                                                                                                                              4. A[start] A[end] ? target</t>
+  </si>
+  <si>
+    <t>search for a range</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>O(logN)</t>
+  </si>
+  <si>
+    <t>分别寻找target 左端点和右端点第一次出现的位置当我们寻找target的左端点即第一次出现的位置时：
+当 A[mid] &lt; target 时， left = mid ；否则 right = mid。
+最后优先判断并选取接近左边的 left 再判断 right
+当我们寻找target的右端点即最后一次出现的位置时：
+当 A[mid] &lt;= target 时， left = mid ；否则 right = mid。
+最后优先判断并选取接近右边的 right 再判断 left</t>
+  </si>
+  <si>
+    <t>74_Search_a_2D_Matrix</t>
+  </si>
+  <si>
+    <t>matrix铺成sorted array</t>
+  </si>
+  <si>
+    <t>O(log(m*n))</t>
+  </si>
+  <si>
+    <t>240_Search_a_2D_Matrix_II</t>
+  </si>
+  <si>
+    <t>initialize (row, col) pointer to the bottom left of the matrix</t>
+  </si>
+  <si>
+    <t>O(m+n)</t>
+  </si>
+  <si>
+    <t>278_First_Bad_Version</t>
+  </si>
+  <si>
+    <t>162_Find_Peak_Element</t>
+  </si>
+  <si>
+    <t>For any value, it is either in an increasing subarray or a decreasing subarray.nums[mid] &gt; nums[mid + 1]: end = mid</t>
+  </si>
+  <si>
+    <t>33_Search_in_Rotated_Sorted_Array</t>
+  </si>
+  <si>
+    <t>两种方法1. 找peak 后分段binary search 2. 直接binary search</t>
+  </si>
+  <si>
+    <t>此题是没有dup的</t>
+  </si>
+  <si>
+    <t>81_Search_in_Rotated_Sorted_Array_ii</t>
+  </si>
+  <si>
+    <t>待思考</t>
+  </si>
+  <si>
+    <t>153_Find_Minimum_in_Rotated_Sorted_Array</t>
+  </si>
+  <si>
+    <t>154_Find_Minimum_in_Rotated_Sorted_Array_II</t>
+  </si>
+  <si>
+    <t>此题无 dup两步 1. mid 和mid -1 比较 若小 return 2. mid和end比较</t>
+  </si>
+  <si>
+    <t>此题有dup， 之前基础上 考虑nums[mid]==nums[end] , 因为[10,1,10,10,10] 或者[10,10,10,1,10]无法判断</t>
+  </si>
+  <si>
+    <t>avg O(logN), worst O(N)</t>
+  </si>
+  <si>
+    <t>Two Sum Similar</t>
+  </si>
+  <si>
+    <t>11_Container_With_Most_Water</t>
+  </si>
+  <si>
+    <t>42_Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>FastSlowPointer</t>
+  </si>
+  <si>
+    <t>19_Remove_Nth_Node_From_End_of_List</t>
+  </si>
+  <si>
+    <t>141_Linked_List_Cycle</t>
+  </si>
+  <si>
+    <t>142_LinkedList-Cycle-II</t>
+  </si>
+  <si>
+    <t>876_Middle_of_the_Linked_List</t>
+  </si>
+  <si>
+    <t>PartitionSimilar</t>
+  </si>
+  <si>
+    <t>quicksort</t>
+  </si>
+  <si>
+    <t>215_Kth_Largest_Element_in_an_Array</t>
+  </si>
+  <si>
+    <t>125_Valid_Palindrome</t>
+  </si>
+  <si>
+    <t>75_Sort_Colors</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>3_Longest_Substring_Without_Repeating_Characters</t>
+  </si>
+  <si>
+    <t>209_Minimum_Size_Subarray_Sum</t>
+  </si>
+  <si>
+    <t>76_Minimum_Window_Substring</t>
+  </si>
+  <si>
+    <t>340_Longest_Substring_with_At_Most_K_Distinct_Characters</t>
+  </si>
+  <si>
+    <t>80_Remove_Duplicates_from_Sorted_Array_II</t>
+  </si>
+  <si>
+    <t>26_Remove_Duplicates_from_Sorted_Array</t>
+  </si>
+  <si>
+    <t>O(N)</t>
+  </si>
+  <si>
+    <t>88_Merge_Sorted_Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最优解：inplace改nums1, 从后往前一对一对比较 </t>
+  </si>
+  <si>
+    <t>O(m+m)</t>
+  </si>
+  <si>
+    <t>一个pointer for loop 一个index pointer记录最后结果</t>
+  </si>
+  <si>
+    <t>同上 但是要加上count计数并且讨论count</t>
+  </si>
+  <si>
+    <t>4. Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>最优解：辅助函数kindkth 比较a1的前k/2和a2的k/2大小，若第一个小，则那段k/2个元素砍掉，继续查剩下的a1的第k/2和a2的第k/2</t>
+  </si>
+  <si>
+    <t>O(log(m+n))</t>
+  </si>
+  <si>
+    <t>Recover Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>reverse 三部曲 ： 断点左边reverse，断点右边reverse，整体reverse</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def rotateArray(self, nums, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= righ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>t:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            nums[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>], nums[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>] = nums[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>], nums[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> += 1 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -= 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Rotate String</t>
+  </si>
+  <si>
+    <t>Leetoode</t>
+  </si>
+  <si>
+    <t>56. Merge Intervals</t>
+  </si>
+  <si>
+    <t>1. 先sort 2. 比较前一个end和后一个start 3. 若end &gt; start, 新的end是max(前一个的end，后一个的end）</t>
+  </si>
+  <si>
+    <t>O(NlogN)</t>
+  </si>
+  <si>
+    <t>使用宽度优先搜索 BFS 的版本。
+第一步：找到所有的点 第二步：复制所有的点，将映射关系存起来 第三步：找到所有的边，复制每一条边</t>
+  </si>
+  <si>
+    <t>133. Clone Graph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDDDDDD"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFF92672"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA6E22E"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,9 +631,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,11 +967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CA39E4-0BF4-B949-B258-8226DA227FC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,7 +1089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD8BF2F-EC48-CE46-8C31-96E2D17BFECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -682,11 +1163,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56C0C41-9818-054E-A1EC-55B01FB5DCE3}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,14 +1180,663 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="N20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="N22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E10:I17"/>
+    <mergeCell ref="E3:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="N13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E13:J15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/summary_list.xlsx
+++ b/summary_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiweiwang/Documents/GitHub/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D67735A-BFE5-1946-AF27-8D25D1B1D9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="500" windowWidth="27720" windowHeight="17500" activeTab="5"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="27720" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Set and Permutation" sheetId="1" r:id="rId1"/>
@@ -20,32 +21,23 @@
     <sheet name="Graph" sheetId="7" r:id="rId6"/>
     <sheet name="snap" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="120">
   <si>
     <t>Leecode</t>
   </si>
@@ -564,17 +556,67 @@
     <t>O(NlogN)</t>
   </si>
   <si>
-    <t>使用宽度优先搜索 BFS 的版本。
-第一步：找到所有的点 第二步：复制所有的点，将映射关系存起来 第三步：找到所有的边，复制每一条边</t>
-  </si>
-  <si>
     <t>133. Clone Graph</t>
+  </si>
+  <si>
+    <t>138. Copy  List with Random Pointer</t>
+  </si>
+  <si>
+    <t>1. dic 存node val 2. 遍历dic 复制connection和random</t>
+  </si>
+  <si>
+    <t>O(M+N)</t>
+  </si>
+  <si>
+    <t>BFS 版本。1：找到所有的点 2：复制所有的点，将映射关系存起来 3：找到所有的边，复制每一条边</t>
+  </si>
+  <si>
+    <t>Topological Sorting</t>
+  </si>
+  <si>
+    <t>1. 把所有mode indegree计算出来 2. bfs每个点 每遍历一个点，其neighbor的indegree -1</t>
+  </si>
+  <si>
+    <t>46. Permutation</t>
+  </si>
+  <si>
+    <t>DFS 四要素 1. 输入数组nums 2. 去重工具visited 3. 中间结果current 4. 最终结果result</t>
+  </si>
+  <si>
+    <t>76. Subsets</t>
+  </si>
+  <si>
+    <t>DFS 四要素 1. 输入数组nums 2. index 3. 中间结果current 4. 最终结果result</t>
+  </si>
+  <si>
+    <t>51. N Queens</t>
+  </si>
+  <si>
+    <t>相当于permutation dfs（n, visited, current, result)  三个function dfs，is_valid，draw</t>
+  </si>
+  <si>
+    <t>if i &gt; index and nums[i] == nums[i - 1]:continue</t>
+  </si>
+  <si>
+    <t>131. Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>相当于subset 用index来check是否appendcurrent到result --》if index==len(s): result.append(current[:])</t>
+  </si>
+  <si>
+    <t>相当于subset dfs(self, candidatesNew, index, current, remainTarget,  results)</t>
+  </si>
+  <si>
+    <t>O(n^(target/min))</t>
+  </si>
+  <si>
+    <t>相当于subset ii if i &gt; index and candidates[i]==candidates[i-1]: continue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -631,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -645,6 +687,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -967,11 +1010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1089,7 +1132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1163,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -1286,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1316,23 +1359,23 @@
       <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1344,51 +1387,51 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1397,13 +1440,13 @@
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="N10" t="s">
         <v>39</v>
       </c>
@@ -1412,53 +1455,53 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1572,7 +1615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1694,14 +1737,14 @@
       <c r="A13" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
       <c r="N13" t="s">
         <v>88</v>
       </c>
@@ -1710,20 +1753,20 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E16" s="3"/>
@@ -1780,26 +1823,125 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>101</v>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1808,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/summary_list.xlsx
+++ b/summary_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiweiwang/Documents/GitHub/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D67735A-BFE5-1946-AF27-8D25D1B1D9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169497DD-221A-6848-8AB4-8CD7B8C1D6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="27720" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="27720" windowHeight="17500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Set and Permutation" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Sorted Array" sheetId="5" r:id="rId5"/>
     <sheet name="Graph" sheetId="7" r:id="rId6"/>
     <sheet name="snap" sheetId="6" r:id="rId7"/>
+    <sheet name="Easy" sheetId="9" r:id="rId8"/>
+    <sheet name="To do" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
   <si>
     <t>Leecode</t>
   </si>
@@ -611,6 +613,33 @@
   </si>
   <si>
     <t>相当于subset ii if i &gt; index and candidates[i]==candidates[i-1]: continue</t>
+  </si>
+  <si>
+    <t>127. Word Ladder</t>
+  </si>
+  <si>
+    <t>BFS distance = {start: 1} getNextWord function</t>
+  </si>
+  <si>
+    <t>126. Word Ladder II</t>
+  </si>
+  <si>
+    <t>BFS + DFS</t>
+  </si>
+  <si>
+    <t>1. Two Sum</t>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>两个比较：1. 最小price 2. 最大profit</t>
+  </si>
+  <si>
+    <t>20. Valid Parentheses</t>
+  </si>
+  <si>
+    <t>stack when meet left part, push their right part into stack. when meet right part, pop out stack top and see if matchs.</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1165,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -1824,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1942,6 +1971,22 @@
       </c>
       <c r="E12" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1984,4 +2029,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EA729D-D8A7-3049-9E07-1FEC9C8DB477}">
+  <dimension ref="A2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0035FF-C020-194C-9DBA-B6D613E82864}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>